--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-121176.3442652998</v>
+        <v>-123063.9257817021</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>25.58739509707016</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>212.3944932241543</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498675</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>9.728248008472567</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>138.3038958997686</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>54.87416669520712</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>138.8984061512189</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>65.50057627590046</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>95.9454048773934</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>264.5049885826909</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>56.49576810820431</v>
+        <v>252.4269367961493</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385091</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>157.3129833303993</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>164.3675597136143</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.72674684450128</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>71.56421891792873</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1938,10 +1938,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.39375411340957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>130.1638582976921</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>111.7102965283834</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>132.3095191564937</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2479,19 +2479,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>62.35304823392131</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>215.9730100579398</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>212.5196829362101</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533816</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700721</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>93.41221638965663</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801345</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437552</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348219</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173898041</v>
       </c>
       <c r="I31" t="n">
-        <v>4.078991725599721</v>
+        <v>55.21598883571627</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523564</v>
+        <v>54.76109577523707</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550475</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298335</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>86.18652692089508</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952723</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080353</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604814</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463018</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373699</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789552</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463137</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1761.414268258236</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C2" t="n">
-        <v>1392.451751317824</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1392.451751317824</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1006.66349871958</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>595.6775939299721</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258236</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1761.414268258236</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,46 +4413,46 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>688.885551920185</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>519.9493689922781</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>369.8327295799424</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4495,43 +4495,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>688.885551920185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.885551920185</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2247.308246834949</v>
+        <v>1073.534970481816</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1073.534970481816</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1073.534970481816</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>687.7467178835714</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>276.7608130939638</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>262.8374090325547</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834949</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834949</v>
+        <v>1837.140060718707</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834949</v>
+        <v>1463.674302457627</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834949</v>
+        <v>1073.534970481816</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9927747426009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9927747426009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>351.9927747426009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>418.2614436197335</v>
       </c>
       <c r="X7" t="n">
-        <v>351.9927747426009</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9927747426009</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>722.2873163082934</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C8" t="n">
-        <v>722.2873163082934</v>
+        <v>1194.514187280852</v>
       </c>
       <c r="D8" t="n">
-        <v>722.2873163082934</v>
+        <v>1194.514187280852</v>
       </c>
       <c r="E8" t="n">
-        <v>722.2873163082934</v>
+        <v>808.7259346826077</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>801.7804339334042</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1485.892406545185</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X8" t="n">
-        <v>1112.426648284105</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y8" t="n">
-        <v>722.2873163082934</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>365.6939024587809</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>443.7353612255621</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="11">
@@ -5030,43 +5030,43 @@
         <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028599</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514098</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.8545730143</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.56127523127</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141867</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126487</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571619</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636266</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1689.561836756089</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>2019.424464420122</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2298.96452963882</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.6075462588847</v>
+        <v>97.217091460286</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6713633309778</v>
+        <v>97.217091460286</v>
       </c>
       <c r="D13" t="n">
-        <v>503.554723918642</v>
+        <v>97.217091460286</v>
       </c>
       <c r="E13" t="n">
-        <v>355.6416303362489</v>
+        <v>97.217091460286</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.217091460286</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.217091460286</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.217091460286</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.217091460286</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.599783924196</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688078</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799374</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771463</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655764</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286157</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229244</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="Y13" t="n">
-        <v>981.5095496229244</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514098</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5340,40 +5340,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M15" t="n">
-        <v>1689.561836756086</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.91651652632</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>395.5481934947356</v>
+        <v>579.0685056491568</v>
       </c>
       <c r="C16" t="n">
-        <v>395.5481934947356</v>
+        <v>579.0685056491568</v>
       </c>
       <c r="D16" t="n">
-        <v>395.5481934947356</v>
+        <v>428.951866236821</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123425</v>
+        <v>281.0387726544279</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>281.0387726544279</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688076</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799372</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471203</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="W16" t="n">
-        <v>665.685973528613</v>
+        <v>1209.499100520944</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305955</v>
+        <v>981.5095496229266</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.6964226305955</v>
+        <v>760.7169704793964</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795209</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643329</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5577,40 +5577,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636264</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643589</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>437.6964226305955</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C19" t="n">
-        <v>268.7602397026886</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5671,52 +5671,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688076</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799372</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471204</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.78763177146</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655734</v>
+        <v>1244.231782352018</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286129</v>
+        <v>1244.231782352018</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305955</v>
+        <v>1112.753137606874</v>
       </c>
       <c r="Y19" t="n">
-        <v>437.6964226305955</v>
+        <v>891.9605584633442</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.0663679705859</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1186.157577111451</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1186.157577111451</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>931.4730889055639</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W22" t="n">
-        <v>642.0559188686033</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="X22" t="n">
-        <v>414.0663679705859</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="Y22" t="n">
-        <v>414.0663679705859</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2379.156885434021</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>310.3166078765829</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C25" t="n">
-        <v>310.3166078765829</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D25" t="n">
-        <v>160.1999684642471</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6145,13 +6145,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1080.841704859374</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>791.7130660729324</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570736</v>
+        <v>791.7130660729324</v>
       </c>
       <c r="W25" t="n">
-        <v>531.109187020113</v>
+        <v>791.7130660729324</v>
       </c>
       <c r="X25" t="n">
-        <v>531.109187020113</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y25" t="n">
-        <v>310.3166078765829</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6227,10 +6227,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>841.863114014129</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1171.725741678162</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506739</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506739</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6412,22 +6412,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>540.5167870809137</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>540.5167870809137</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>540.5167870809137</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6449,64 +6449,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>604.564143816379</v>
+        <v>750.8748194215345</v>
       </c>
       <c r="C31" t="n">
-        <v>491.3888261698429</v>
+        <v>637.6995017749971</v>
       </c>
       <c r="D31" t="n">
-        <v>397.033052038878</v>
+        <v>543.3437276440308</v>
       </c>
       <c r="E31" t="n">
-        <v>304.8808237378557</v>
+        <v>451.1914993430071</v>
       </c>
       <c r="F31" t="n">
-        <v>213.7517415213163</v>
+        <v>360.0624171264661</v>
       </c>
       <c r="G31" t="n">
-        <v>101.3372851225078</v>
+        <v>247.6479607276563</v>
       </c>
       <c r="H31" t="n">
-        <v>101.3372851225078</v>
+        <v>152.990817556969</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864659</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933477</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667471</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286018</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353685</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021638</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056064</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.811824899259</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.65268009618</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167056</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1481.571032267162</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1282.647409342644</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818942</v>
+        <v>1048.991104587053</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652478</v>
+        <v>876.7624189704048</v>
       </c>
       <c r="Y31" t="n">
-        <v>730.4517433652478</v>
+        <v>876.7624189704048</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6698,28 +6698,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982961</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6883,25 +6883,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6932,13 +6932,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,28 +7002,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
         <v>221.529509210313</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,7 +7348,7 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7391,46 +7391,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,19 +7546,19 @@
         <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504517</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,34 +7570,34 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025263</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>32.78140656351979</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9012,22 +9012,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>32.78140656352411</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776707</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297522</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>180.0237016735825</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.8724419039329</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>360.5026862907255</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.518996851538</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675122</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>61.34209567542285</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.105233337436</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>94.92934954544886</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,10 +23707,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>125.2217189048028</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,19 +23944,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>95.54579709134504</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>109.8372645300059</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>154.2134791800973</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24367,19 +24367,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>84.08091441264786</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5.574551000449418</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>74.00331540038093</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>51.13699711011511</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>144.8475688491266</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235391</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.179500941361766e-12</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1121561.758217902</v>
+        <v>1121561.758217903</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1121561.758217902</v>
+        <v>1121561.758217903</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1166572.029399452</v>
+        <v>1166572.029399451</v>
       </c>
     </row>
     <row r="12">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>266838.5752058922</v>
+      </c>
+      <c r="C2" t="n">
         <v>266838.5752058921</v>
       </c>
-      <c r="C2" t="n">
-        <v>266838.5752058923</v>
-      </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
       <c r="E2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295111</v>
       </c>
       <c r="F2" t="n">
-        <v>254168.8888295107</v>
+        <v>254168.8888295109</v>
       </c>
       <c r="G2" t="n">
         <v>254168.8888295108</v>
@@ -26332,25 +26332,25 @@
         <v>254168.8888295107</v>
       </c>
       <c r="I2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="J2" t="n">
-        <v>254168.8888295108</v>
+        <v>254168.8888295107</v>
       </c>
       <c r="K2" t="n">
-        <v>264434.3892744259</v>
+        <v>264434.3892744252</v>
       </c>
       <c r="L2" t="n">
+        <v>266838.5752058921</v>
+      </c>
+      <c r="M2" t="n">
         <v>266838.5752058922</v>
       </c>
-      <c r="M2" t="n">
-        <v>266838.5752058923</v>
-      </c>
       <c r="N2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058923</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768978</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284572</v>
+        <v>44162.60530284457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086678</v>
+        <v>10342.90680086794</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338376</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284577</v>
+        <v>44162.60530284457</v>
       </c>
     </row>
     <row r="4">
@@ -26418,19 +26418,19 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007481</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007471</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007505</v>
+        <v>7916.731656007465</v>
       </c>
       <c r="H4" t="n">
         <v>7916.731656007484</v>
@@ -26442,19 +26442,19 @@
         <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020405</v>
+        <v>26081.35417020355</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732795</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732801</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871675</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26491,22 +26491,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022269</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-553905.4307879827</v>
+        <v>-553905.4307879825</v>
       </c>
       <c r="C6" t="n">
-        <v>36062.44842656203</v>
+        <v>36062.44842656184</v>
       </c>
       <c r="D6" t="n">
-        <v>36062.44842656184</v>
+        <v>36062.44842656175</v>
       </c>
       <c r="E6" t="n">
-        <v>-370895.2052521094</v>
+        <v>-370992.6643780831</v>
       </c>
       <c r="F6" t="n">
-        <v>154264.8312247866</v>
+        <v>154167.3720988151</v>
       </c>
       <c r="G6" t="n">
-        <v>154264.8312247867</v>
+        <v>154167.3720988145</v>
       </c>
       <c r="H6" t="n">
-        <v>154264.8312247866</v>
+        <v>154167.3720988156</v>
       </c>
       <c r="I6" t="n">
-        <v>154264.8312247867</v>
+        <v>154167.3720988144</v>
       </c>
       <c r="J6" t="n">
-        <v>-22158.38796780632</v>
+        <v>-22255.8470937785</v>
       </c>
       <c r="K6" t="n">
-        <v>97562.22127115331</v>
+        <v>97543.72753322004</v>
       </c>
       <c r="L6" t="n">
-        <v>128445.0436876721</v>
+        <v>128445.0436876709</v>
       </c>
       <c r="M6" t="n">
-        <v>3986.935254701719</v>
+        <v>3986.935254701268</v>
       </c>
       <c r="N6" t="n">
-        <v>138787.9504885389</v>
+        <v>138787.9504885393</v>
       </c>
       <c r="O6" t="n">
-        <v>138787.9504885389</v>
+        <v>138787.9504885388</v>
       </c>
       <c r="P6" t="n">
-        <v>94625.34518569314</v>
+        <v>94625.34518569433</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964062</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964061</v>
-      </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,16 +26741,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26759,7 +26759,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26768,10 +26768,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253575</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108347</v>
+        <v>12.92863350108492</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855721</v>
+        <v>55.20325662855571</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237015</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990193</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990191</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990193</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>357.1464465664104</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>201.3896767966407</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>215.9814073805646</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>226.9689958712389</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>269.04860606915</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>7.535556495350278</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>221.0224220606905</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>310.930640864318</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>149.2791814381041</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>229.7861061337734</v>
+        <v>33.85493744582845</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-6.514824664323687e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.389060682617128e-11</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855715</v>
+        <v>55.20325662855571</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700205</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004669</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>239.8748214950451</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.0130327850745</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N15" t="n">
-        <v>365.975979961537</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.502597509196</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349123</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504671</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>462.3874039146914</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714625</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850745</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,7 +36443,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,10 +36452,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>642.8663885318336</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>660.1896773843231</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412269</v>
+        <v>67.71102679412124</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584663</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084843</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075283</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341594</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491586</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403565</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043192</v>
+        <v>94.42895660043047</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
